--- a/target/test-classes/testData/HrmsTestData.xlsx
+++ b/target/test-classes/testData/HrmsTestData.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DCBBE227-9D24-4688-BD06-4CA91243C386}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syntax/eclipse-workspace/HrmsFramework/src/test/resources/testdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F32474-E656-4240-AC36-427014A5057F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" xr2:uid="{CD3A54CB-C005-0E4A-932C-421D6A132F4C}"/>
+    <workbookView xWindow="35840" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{CD3A54CB-C005-0E4A-932C-421D6A132F4C}"/>
   </bookViews>
   <sheets>
-    <sheet name="EmployeeLoginCredintials" sheetId="1" r:id="rId1"/>
-    <sheet name="Student" sheetId="2" r:id="rId2"/>
+    <sheet name="EmployeeLoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="AddReport" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:H13"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
@@ -58,20 +62,35 @@
     <t>AmirKhan_@123</t>
   </si>
   <si>
-    <t>John4561</t>
-  </si>
-  <si>
-    <t>mary4561</t>
-  </si>
-  <si>
-    <t>Ali4561</t>
+    <t>Selection Criteria</t>
+  </si>
+  <si>
+    <t>Report Name</t>
+  </si>
+  <si>
+    <t>Selected Criteria Include</t>
+  </si>
+  <si>
+    <t>Field Groups</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>john58694534</t>
+  </si>
+  <si>
+    <t>mary56234234345345</t>
+  </si>
+  <si>
+    <t>ali562342342353</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +102,19 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF5D5D5D"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -106,9 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,19 +460,19 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.796875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.796875" style="1"/>
+    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -460,13 +494,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,13 +508,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -488,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -501,24 +535,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0CC62A-99F6-E84B-8CDF-3B8105EE77B0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A893316-75ED-1C4D-98B6-285C034C8FF2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="21.33203125" style="2"/>
+    <col min="3" max="3" width="35.83203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="21.33203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>